--- a/web/cfg/emptemp.xlsx
+++ b/web/cfg/emptemp.xlsx
@@ -36,38 +36,16 @@
 Tickets Absents</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">      Traités      &lt; 1mn</t>
-    </r>
+    <t xml:space="preserve">       
+      Traités      &lt; 1mn</t>
   </si>
   <si>
     <t xml:space="preserve">
 Sans Affectation</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">Nb.Absents /Nb.Tickets%</t>
-    </r>
+    <t xml:space="preserve"> 
+Nb.Absents /Nb.Tickets%</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -332,7 +310,7 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="0" tint="0"/>
       <sz val="20"/>
       <u val="single"/>
     </font>
@@ -346,7 +324,7 @@
     <font>
       <name val="Tahoma"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="0" tint="0"/>
       <sz val="10"/>
     </font>
     <font>
@@ -367,7 +345,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,24 +452,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB83DBA"/>
+        <bgColor rgb="FFB83DBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -703,25 +687,25 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="18" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="19" borderId="9" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="20" borderId="9" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="21" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -731,7 +715,7 @@
     <xf fontId="22" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="23" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="23" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1278,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <pane state="frozen" topLeftCell="A4" ySplit="3"/>
+      <pane state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1304,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="0.40000000000000002" customHeight="1"/>
-    <row r="2" ht="31.350000000000001" customHeight="1">
+    <row r="2" ht="36.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1321,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" ht="2.1000000000000001" customHeight="1"/>
+    <row r="3" ht="22.5" customHeight="1"/>
     <row r="4" ht="50.25" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>2</v>
